--- a/data/income_statement/3digits/total/353_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/353_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>353-Steam and air conditioning supply</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>353-Steam and air conditioning supply</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,23 +841,28 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>66271.20180000001</v>
+        <v>66271.2018</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>78138.63066999998</v>
+        <v>78138.63067</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>88094.59426000001</v>
+        <v>88094.59425999998</v>
       </c>
       <c r="F5" s="47" t="n">
         <v>105208.94584</v>
@@ -968,10 +874,10 @@
         <v>120007.99158</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>130966.77234</v>
+        <v>143094.23471</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>148772.80836</v>
+        <v>150433.00577</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>201769.38368</v>
@@ -980,13 +886,18 @@
         <v>263919.28843</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>333717.49279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>333797.0034099999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>341629.771</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>64177.52475</v>
@@ -995,7 +906,7 @@
         <v>76263.17805</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>85574.19007000001</v>
+        <v>85574.19007</v>
       </c>
       <c r="F6" s="48" t="n">
         <v>103309.52285</v>
@@ -1007,10 +918,10 @@
         <v>114634.28819</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>127412.57883</v>
+        <v>139446.86518</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>140960.89923</v>
+        <v>142583.53116</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>179354.94996</v>
@@ -1019,13 +930,18 @@
         <v>249190.688</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>319426.10781</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>319505.61843</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>330717.73</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1253.63723</v>
@@ -1060,17 +976,22 @@
       <c r="M7" s="48" t="n">
         <v>6147.398020000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>427.423</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>840.03982</v>
+        <v>840.0398200000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>649.04836</v>
+        <v>649.0483600000001</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>1047.44012</v>
@@ -1085,25 +1006,30 @@
         <v>1890.66387</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2536.69912</v>
+        <v>2629.87514</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>4373.39165</v>
+        <v>4410.95713</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>8650.29679</v>
+        <v>8650.296789999999</v>
       </c>
       <c r="L8" s="48" t="n">
         <v>9091.382810000001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>8143.986959999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>8143.98696</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>10484.618</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>498.74087</v>
@@ -1112,37 +1038,42 @@
         <v>436.2931</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>608.3574100000001</v>
+        <v>608.35741</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>1006.60686</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>557.00118</v>
+        <v>557.0011800000001</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>826.29849</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>565.88072</v>
+        <v>571.58762</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>590.75757</v>
+        <v>590.8883999999999</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1097.53577</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2265.807389999999</v>
+        <v>2265.80739</v>
       </c>
       <c r="M9" s="47" t="n">
         <v>3545.65579</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>10219.29</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>413.35484</v>
@@ -1154,7 +1085,7 @@
         <v>176.06905</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>831.0999099999999</v>
+        <v>831.09991</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>177.91521</v>
@@ -1163,13 +1094,13 @@
         <v>549.57462</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>245.99593</v>
+        <v>251.70283</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>387.21445</v>
+        <v>387.34528</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>771.15135</v>
+        <v>771.1513500000001</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>1714.8077</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>3008.28914</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>5809.181</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>83.08259</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>234.24223</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>1264.171</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>2.30344</v>
@@ -1255,17 +1196,22 @@
       <c r="M12" s="48" t="n">
         <v>303.12442</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>3145.938</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>65772.46092999999</v>
+        <v>65772.46093</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>77702.33757</v>
+        <v>77702.33756999999</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>87486.23685</v>
@@ -1280,10 +1226,10 @@
         <v>119181.69309</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>130400.89162</v>
+        <v>142522.64709</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>148182.05079</v>
+        <v>149842.11737</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>200671.84791</v>
@@ -1292,13 +1238,18 @@
         <v>261653.48104</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>330171.837</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>330251.34762</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>331410.481</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>52881.56067</v>
@@ -1307,22 +1258,22 @@
         <v>61890.41623</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>71073.45343000001</v>
+        <v>71073.45342999999</v>
       </c>
       <c r="F14" s="47" t="n">
         <v>76107.56963</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>86633.96735999998</v>
+        <v>86633.96736</v>
       </c>
       <c r="H14" s="47" t="n">
         <v>90584.27434999999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>88930.52063000001</v>
+        <v>97900.55976</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>108143.20919</v>
+        <v>108778.40719</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>152825.41973</v>
@@ -1331,16 +1282,21 @@
         <v>201552.59285</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>244877.97343</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>244967.13446</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>245986.053</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>6623.703749999999</v>
+        <v>6623.70375</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>11302.5962</v>
@@ -1358,7 +1314,7 @@
         <v>25044.66972</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>24186.04568</v>
+        <v>24402.11585</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>24556.3</v>
@@ -1370,16 +1326,21 @@
         <v>62981.74388</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>72320.93212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>72410.09315</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>49083.174</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>9152.631869999999</v>
+        <v>9152.631870000001</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>9562.400079999999</v>
@@ -1397,7 +1358,7 @@
         <v>13375.62286</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>16078.58142</v>
+        <v>16271.7772</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>20530.43361</v>
@@ -1411,11 +1372,16 @@
       <c r="M16" s="48" t="n">
         <v>34263.17425</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>34595.57</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>37009.21042</v>
@@ -1427,7 +1393,7 @@
         <v>42769.3438</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>51362.20857</v>
+        <v>51362.20857000001</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>57775.39151000001</v>
@@ -1436,10 +1402,10 @@
         <v>52053.88591</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>48394.9392</v>
+        <v>56955.71238</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>62880.50847</v>
+        <v>63515.70647</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>75410.93536</v>
@@ -1450,11 +1416,16 @@
       <c r="M17" s="48" t="n">
         <v>137856.0803</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="48" t="n">
+        <v>162189.184</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>96.01463000000001</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>437.78676</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>118.125</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>12890.90026</v>
@@ -1514,28 +1490,33 @@
         <v>28597.41874</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>41470.37099</v>
+        <v>44622.08732999999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>40038.8416</v>
+        <v>41063.71018000001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>47846.42818000001</v>
+        <v>47846.42818</v>
       </c>
       <c r="L19" s="47" t="n">
         <v>60100.88819</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>85293.86356999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>85284.21316</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>85424.428</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>8995.818120000002</v>
+        <v>8995.81812</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>11612.06155</v>
@@ -1553,25 +1534,30 @@
         <v>24203.10057</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>31157.93186</v>
+        <v>33843.62601000001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>33252.51068</v>
+        <v>34437.14108</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>40953.69185</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>52729.51608</v>
+        <v>52740.35287</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>58705.36723</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>58762.00387000001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>61595.625</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>74.22288</v>
@@ -1606,17 +1592,22 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>26.565</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>626.9716800000001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>859.0875399999999</v>
+        <v>859.08754</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>870.04128</v>
@@ -1631,10 +1622,10 @@
         <v>3758.98801</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>6360.33617</v>
+        <v>6527.68005</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>6213.45562</v>
+        <v>6213.455619999999</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>7860.50884</v>
@@ -1643,13 +1634,18 @@
         <v>11772.71955</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>7582.505700000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>7582.505700000001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>5913.417</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>8294.62356</v>
@@ -1670,25 +1666,30 @@
         <v>20444.11256</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>23843.82229</v>
+        <v>26362.17256</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>27039.05506</v>
+        <v>28223.68546</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>33093.18301</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>40956.79653</v>
+        <v>40967.63332</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>51122.86153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>51179.49817</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>55655.643</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>3895.08214</v>
@@ -1703,34 +1704,39 @@
         <v>13999.0526</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>926.1736199999999</v>
+        <v>926.1736199999997</v>
       </c>
       <c r="H24" s="47" t="n">
         <v>4394.31817</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>10312.43913</v>
+        <v>10778.46132</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>6786.33092</v>
+        <v>6626.569100000001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>6892.736330000001</v>
+        <v>6892.73633</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>7371.372110000001</v>
+        <v>7360.53532</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>26588.49634</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>26522.20929</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>23828.803</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>2526.958360000001</v>
+        <v>2526.95836</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>2036.06269</v>
@@ -1748,10 +1754,10 @@
         <v>3360.41176</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>6725.69917</v>
+        <v>6813.64942</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>5575.180870000001</v>
+        <v>5703.27821</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>6553.88605</v>
@@ -1760,13 +1766,18 @@
         <v>8894.331309999998</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>12653.90478</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>12654.93678</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>23437.052</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>109.88255</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>164.501</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>1842.37287</v>
@@ -1868,22 +1889,27 @@
         <v>3303.59896</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>3707.48338</v>
+        <v>3807.22037</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>3604.03065</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>5504.17652</v>
+        <v>5504.176520000001</v>
       </c>
       <c r="M28" s="48" t="n">
         <v>9554.82285</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>5326.142</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>4.844</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>308.0125</v>
@@ -1943,10 +1974,10 @@
         <v>491.53659</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>623.17103</v>
+        <v>663.05983</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>547.47624</v>
+        <v>575.8365900000001</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>1027.42937</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>1103.86683</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>1516.821</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>43.62325</v>
@@ -1982,13 +2018,13 @@
         <v>23.22432</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2.03969</v>
+        <v>31.35143</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>13.08927</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>6.55577</v>
+        <v>6.555770000000001</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>2.08929</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>20.40528</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>110.72992</v>
@@ -2012,7 +2053,7 @@
         <v>143.36498</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>77.14157999999999</v>
+        <v>77.14158</v>
       </c>
       <c r="G32" s="48" t="n">
         <v>100.97886</v>
@@ -2021,7 +2062,7 @@
         <v>278.21761</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2549.35056</v>
+        <v>2552.40724</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>811.28506</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>1586.4868</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>15395.925</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>222.21982</v>
@@ -2138,7 +2194,7 @@
         <v>257.81342</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>207.99924</v>
+        <v>223.69227</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>266.34578</v>
@@ -2147,16 +2203,21 @@
         <v>555.71851</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>442.6205699999999</v>
+        <v>442.62057</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>260.44047</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>261.47247</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1028.785</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>786.17106</v>
@@ -2177,10 +2238,10 @@
         <v>1610.87127</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3608.14388</v>
+        <v>3748.47882</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>7416.54389</v>
+        <v>7502.839910000001</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>3218.79179</v>
@@ -2191,11 +2252,16 @@
       <c r="M36" s="47" t="n">
         <v>5419.996939999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="47" t="n">
+        <v>20400.846</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>0.03</v>
@@ -2222,7 +2288,7 @@
         <v>0.04254</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>3.45854</v>
+        <v>3.458540000000001</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>2.00442</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>24.02542</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>626.8580400000001</v>
@@ -2255,10 +2326,10 @@
         <v>915.1631200000002</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1313.95231</v>
+        <v>1389.61097</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1381.12441</v>
+        <v>1467.42043</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>1626.59445</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>2075.75605</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>2779.135</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0.063</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>130.28021</v>
@@ -2339,7 +2420,7 @@
         <v>894.7192299999999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>974.60905</v>
+        <v>974.6090499999999</v>
       </c>
       <c r="L40" s="48" t="n">
         <v>2181.33809</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>1968.85995</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>17015.551</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>29.00281</v>
@@ -2450,13 +2546,13 @@
         <v>205.54395</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>391.13572</v>
+        <v>455.812</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>5140.65771</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>614.1297499999999</v>
+        <v>614.1297500000002</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>456.03488</v>
@@ -2464,11 +2560,16 @@
       <c r="M43" s="48" t="n">
         <v>1351.35552</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>606.093</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>2466.82621</v>
@@ -2477,7 +2578,7 @@
         <v>2492.25051</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4237.6662</v>
+        <v>4237.666200000001</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>4355.65327</v>
@@ -2486,10 +2587,10 @@
         <v>2716.191170000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>3543.967599999999</v>
+        <v>3543.9676</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>3438.190230000001</v>
+        <v>3451.03661</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>3639.25796</v>
@@ -2503,11 +2604,16 @@
       <c r="M44" s="47" t="n">
         <v>10858.94929</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="47" t="n">
+        <v>7417.616</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>950.1748</v>
@@ -2525,10 +2631,10 @@
         <v>2716.191170000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>3543.967599999999</v>
+        <v>3543.9676</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>2757.91338</v>
+        <v>2770.75976</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>3639.25796</v>
@@ -2542,11 +2648,16 @@
       <c r="M45" s="48" t="n">
         <v>10375.76888</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="48" t="n">
+        <v>7299.759</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>1516.65141</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>483.18041</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>117.857</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>3169.04323</v>
@@ -2606,31 +2722,36 @@
         <v>2599.89106</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>9991.804190000001</v>
+        <v>10392.59531</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1305.70994</v>
+        <v>1187.749439999999</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>5515.14878</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2797.939719999999</v>
+        <v>2787.10293</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>22963.45489</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>22898.19984</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>19447.393</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>125.59487</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>447.2331899999999</v>
+        <v>447.23319</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>1074.39427</v>
@@ -2645,10 +2766,10 @@
         <v>1418.72441</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>415.37526</v>
+        <v>508.17455</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1908.79056</v>
+        <v>1929.87114</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>786.40475</v>
@@ -2659,11 +2780,16 @@
       <c r="M48" s="47" t="n">
         <v>3170.99134</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" s="47" t="n">
+        <v>2084.599</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0.24608</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>85.84823000000002</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>95.379</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>125.34879</v>
@@ -2723,13 +2854,13 @@
         <v>1378.95004</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>405.29669</v>
+        <v>498.09598</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1713.89981</v>
+        <v>1734.98039</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>771.0312799999999</v>
+        <v>771.03128</v>
       </c>
       <c r="L50" s="48" t="n">
         <v>1372.99471</v>
@@ -2737,17 +2868,22 @@
       <c r="M50" s="48" t="n">
         <v>3085.14311</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="48" t="n">
+        <v>1989.22</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1093.171</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>739.7391400000001</v>
+        <v>739.73914</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>3425.78407</v>
@@ -2762,7 +2898,7 @@
         <v>3824.39302</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1126.99116</v>
+        <v>1431.54372</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>4495.043019999999</v>
@@ -2776,11 +2912,16 @@
       <c r="M51" s="47" t="n">
         <v>4179.98409</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" s="47" t="n">
+        <v>7928.361</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>5.13068</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>18.44237</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>11.931</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>59.96651</v>
@@ -2834,7 +2980,7 @@
         <v>179.48036</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>830.8956599999999</v>
+        <v>830.89566</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>290.01594</v>
@@ -2854,17 +3000,22 @@
       <c r="M53" s="48" t="n">
         <v>132.62167</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>360.203</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1028.07381</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>688.6256</v>
+        <v>688.6256000000001</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>3087.02628</v>
@@ -2879,7 +3030,7 @@
         <v>3356.42744</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>504.8288899999999</v>
+        <v>809.38145</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>4376.53239</v>
@@ -2893,11 +3044,16 @@
       <c r="M54" s="48" t="n">
         <v>4028.92005</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="48" t="n">
+        <v>7556.227</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>2201.4671</v>
@@ -2915,28 +3071,33 @@
         <v>-1658.063</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>194.22245</v>
+        <v>194.2224500000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>9280.188289999998</v>
+        <v>9469.226140000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-1280.54252</v>
+        <v>-1377.422440000001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>5146.151150000001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1173.746519999999</v>
+        <v>1162.909730000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>21954.46214</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>21889.20709</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>13603.631</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>2200.12789</v>
@@ -2963,7 +3124,7 @@
         <v>3410.37058</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>4045.962819999999</v>
+        <v>4045.96282</v>
       </c>
       <c r="L56" s="47" t="n">
         <v>3765.52357</v>
@@ -2971,11 +3132,16 @@
       <c r="M56" s="47" t="n">
         <v>7428.593849999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="47" t="n">
+        <v>6637.078</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>1.339209999999963</v>
@@ -2984,34 +3150,37 @@
         <v>1277.443760000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-1778.275520000001</v>
+        <v>-1778.27552</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>9911.717360000001</v>
+        <v>9911.717359999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-3298.84548</v>
+        <v>-3298.845479999999</v>
       </c>
       <c r="H57" s="47" t="n">
         <v>-1374.56287</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>6756.6525</v>
+        <v>6945.690350000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-4690.913099999999</v>
+        <v>-4787.793019999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1100.188329999998</v>
+        <v>1100.18833</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-2591.77705</v>
+        <v>-2602.61384</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>14525.86829</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>14460.61324</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>6966.553</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>43</v>
@@ -3050,22 +3222,25 @@
         <v>59</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>76</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>83</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>